--- a/Python-flask/지우연.xlsx
+++ b/Python-flask/지우연.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2ECC0E-2345-4AFC-8269-531D5F97D204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B38D4A3-142A-4ABA-9559-9887BA95F143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="파일 구조" sheetId="1" r:id="rId1"/>
     <sheet name="Routing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/cartogram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추후 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/seoul/park</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/cartogram/pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cartogram/coffee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/cartogram/pop, /cartogram/coffee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,9 +337,6 @@
     <t>cartogram.html</t>
   </si>
   <si>
-    <t>pop.html</t>
-  </si>
-  <si>
     <t>coffee.html</t>
   </si>
   <si>
@@ -543,6 +524,90 @@
   </si>
   <si>
     <t>/stock/stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawkorea.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region_nm.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop_cri.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carto.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carto/pop_crisis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crisis_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crisis_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carto/coffee_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, carto, mtime, top10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, mtime, option, columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carto_list, csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,19 +1132,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1088,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1099,10 +1164,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -1110,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1121,13 +1190,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1136,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1147,13 +1216,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1162,279 +1231,370 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>86</v>
+      <c r="B15" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>114</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="4" t="s">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
-        <v>114</v>
+        <v>114</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="12" t="s">
-        <v>114</v>
+        <v>114</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
         <v>119</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E24" t="s">
-        <v>130</v>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>100</v>
+      <c r="B25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>102</v>
+      <c r="B26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>103</v>
+      <c r="B27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>101</v>
+      <c r="B28" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>104</v>
+      <c r="B29" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>105</v>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>106</v>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1445,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26243E4C-FCA4-491A-A6C1-9F097DC64FEA}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1476,19 +1636,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -1511,9 +1671,7 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1534,16 +1692,16 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="A6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -1554,18 +1712,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -1583,172 +1739,152 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
+      <c r="A16" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1758,11 +1894,9 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1772,11 +1906,9 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1786,11 +1918,9 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1800,11 +1930,9 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1814,11 +1942,9 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1828,11 +1954,9 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A23" s="11"/>
       <c r="B23" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1842,11 +1966,9 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1856,11 +1978,9 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1871,19 +1991,17 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1893,197 +2011,217 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="A32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="1"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5"/>
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1"/>
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python-flask/지우연.xlsx
+++ b/Python-flask/지우연.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B38D4A3-142A-4ABA-9559-9887BA95F143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E96C5-7466-47C3-8661-1F8A3A960091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,9 +356,6 @@
     <t>wordcloud.html</t>
   </si>
   <si>
-    <t>present.html</t>
-  </si>
-  <si>
     <t>menu, weather, mtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,6 +605,66 @@
   </si>
   <si>
     <t>carto_list, csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordcloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_wc.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports_keyword.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_result.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordcloud.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wordcloud/create_wc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wordcloud/sports_keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang, txt, mask, stopwords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title.txt, wordcloud.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1173,7 @@
     <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.875" bestFit="1" customWidth="1"/>
@@ -1125,476 +1182,547 @@
     <col min="13" max="13" width="179.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="12" t="s">
-        <v>109</v>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>132</v>
+      <c r="B16" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>114</v>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>133</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>81</v>
+        <v>113</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="F20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
-        <v>109</v>
+      <c r="F24" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>148</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>128</v>
+      <c r="B30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>129</v>
+      <c r="E31" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="12" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="12" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="12" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1605,15 +1733,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26243E4C-FCA4-491A-A6C1-9F097DC64FEA}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.875" bestFit="1" customWidth="1"/>
@@ -1693,7 +1821,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
@@ -1852,10 +1980,10 @@
         <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1876,7 +2004,7 @@
         <v>71</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2063,7 +2191,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2079,22 +2207,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C32" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2102,7 +2230,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2113,21 +2241,21 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -2135,16 +2263,16 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2210,18 +2338,61 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python-flask/지우연.xlsx
+++ b/Python-flask/지우연.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E96C5-7466-47C3-8661-1F8A3A960091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CB968-4EF0-4ED1-A4AB-90D879BC2D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="177">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/wordcloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/seoul/park</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,26 +131,6 @@
     <t>/seoul/cctv</t>
   </si>
   <si>
-    <t>/covid/national</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/covid/seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/covid/provinces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/covid/national, /covid/provinces, /covid/seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cartogram/pop, /cartogram/coffee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/crawling/sandwich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/wordcloud/present</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/crawling/sandwich, /crawling/oilprice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,21 +294,6 @@
     <t>cctv.html</t>
   </si>
   <si>
-    <t>covid.html</t>
-  </si>
-  <si>
-    <t>national.html</t>
-  </si>
-  <si>
-    <t>provinces.html</t>
-  </si>
-  <si>
-    <t>seoul.html</t>
-  </si>
-  <si>
-    <t>cartogram.html</t>
-  </si>
-  <si>
     <t>coffee.html</t>
   </si>
   <si>
@@ -353,17 +310,10 @@
     <t>oilprice.html</t>
   </si>
   <si>
-    <t>wordcloud.html</t>
-  </si>
-  <si>
     <t>menu, weather, mtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu, weather, option, option_dict1, option_dict2, column_index, mtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>crime_de/violence, crime_de/rape, crime_de/theft, crime_de/robbery, crime_de/murder, crime_de/violence_arr, crime_de/rape_arr, crime_de/theft_arr, crime_de/robbery_arr, crime_de/murder_arr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,22 +510,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/carto/pop_crisis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crisis_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crisis_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, carto, mtime, top10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, mtime, option, columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carto_list, csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordcloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_wc.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports_keyword.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc_result.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordcloud.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang, txt, mask, stopwords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/national_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/update_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;date&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/age_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/update_age_gender</t>
+  </si>
+  <si>
+    <t>/covid/update_age_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/abroad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/update_abroad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/visual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/carto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/carto/pop_crisis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crisis_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crisis_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,67 +645,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/carto/coffee_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu, weather, carto, mtime, top10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu, weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu, weather, mtime, option, columns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carto_list, csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wordcloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_wc.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sports_keyword.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wc_result.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wordcloud.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wordcloud/create_wc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wordcloud/sports_keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang, txt, mask, stopwords</t>
+    <t>status.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age_gender.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abroad.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, rows, date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, mtime, regions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -652,19 +673,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu, weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title.txt, wordcloud.png</t>
+    <t>visual_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/national_status, /covid/age_gender, /covid/abroad, /covid/visual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/covid/update_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carto/pop_crisis, /carto/coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/carto/coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cloud/create_wc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cloud/sports_keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, option, option_dict1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_dict2, column_index, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cloud/create_wc, /cloud/sports_keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>covid.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>covid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1189,19 +1254,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1210,10 +1275,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1221,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1236,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1247,13 +1316,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1262,13 +1331,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1277,13 +1346,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1292,437 +1361,507 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
       <c r="B16" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>131</v>
+      <c r="B17" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>113</v>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>81</v>
+        <v>99</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>99</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="12"/>
+        <v>99</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="4" t="s">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>120</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="12" t="s">
-        <v>108</v>
+      <c r="F27" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>148</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>123</v>
+      <c r="E31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="12" t="s">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="12" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1733,20 +1872,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26243E4C-FCA4-491A-A6C1-9F097DC64FEA}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="179.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1764,19 +1904,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -1821,7 +1961,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
@@ -1829,7 +1969,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -1846,10 +1986,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -1867,27 +2007,27 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1895,38 +2035,38 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1934,7 +2074,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
@@ -1946,7 +2086,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
@@ -1958,7 +2098,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
@@ -1969,42 +2109,42 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2012,19 +2152,21 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2036,7 +2178,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2048,7 +2190,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2060,7 +2202,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2072,7 +2214,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2084,7 +2226,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2096,7 +2238,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2108,7 +2250,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2119,13 +2261,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2138,102 +2280,122 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="E28" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="E30" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="A32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -2241,21 +2403,21 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -2263,136 +2425,218 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="1"/>
+      <c r="A37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="1"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="8"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python-flask/지우연.xlsx
+++ b/Python-flask/지우연.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CB968-4EF0-4ED1-A4AB-90D879BC2D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8D918A-FEB9-4B74-982C-9AE63C06CC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="182">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/crawling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/seoul/park</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,18 +127,6 @@
     <t>/seoul/cctv</t>
   </si>
   <si>
-    <t>/crawling/sandwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crawling/oilprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crawling/sandwich, /crawling/oilprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>html 파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,16 +284,10 @@
     <t>crawling.html</t>
   </si>
   <si>
-    <t>sandwich.html</t>
-  </si>
-  <si>
     <t>crime_de.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oilprice.html</t>
-  </si>
-  <si>
     <t>menu, weather, mtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,6 +708,50 @@
   </si>
   <si>
     <t>covid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crawl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crawl/chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, bugs, melon, genie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind, menu, weather, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoulapi.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cctv.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1254,19 +1276,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1290,13 +1312,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1305,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1316,13 +1338,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1331,13 +1353,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1361,94 +1383,94 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1457,371 +1479,383 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
-        <v>63</v>
+      <c r="G26" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
-        <v>102</v>
+      <c r="G27" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
-        <v>94</v>
+      <c r="F30" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
         <v>99</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>131</v>
+      <c r="E33" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>113</v>
+      <c r="B39" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="12" t="s">
-        <v>99</v>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>80</v>
+      <c r="B43" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>82</v>
+      <c r="B44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -1829,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
@@ -1837,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
@@ -1845,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
@@ -1853,15 +1887,39 @@
         <v>2</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="12" t="s">
-        <v>94</v>
+      <c r="B49" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1875,8 +1933,8 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1887,7 +1945,7 @@
     <col min="4" max="4" width="42.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="179.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="164.25" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1904,19 +1962,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -1961,7 +2019,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
@@ -1969,7 +2027,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -1986,10 +2044,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -2007,27 +2065,27 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2035,38 +2093,38 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2074,7 +2132,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
@@ -2086,7 +2144,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
@@ -2098,7 +2156,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
@@ -2109,42 +2167,42 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2152,13 +2210,13 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="4"/>
       <c r="F17" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2166,7 +2224,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2178,7 +2236,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2190,7 +2248,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2202,7 +2260,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2214,7 +2272,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2226,7 +2284,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2238,7 +2296,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2250,7 +2308,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2261,317 +2319,329 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="1"/>
+      <c r="A30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="D32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="E38" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="5"/>
+      <c r="A42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2579,26 +2649,26 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H45" s="1"/>
     </row>
@@ -2606,34 +2676,34 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>

--- a/Python-flask/지우연.xlsx
+++ b/Python-flask/지우연.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8D918A-FEB9-4B74-982C-9AE63C06CC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D57B67-E859-44BC-B802-0C90E87D7801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
   <sheets>
     <sheet name="파일 구조" sheetId="1" r:id="rId1"/>
-    <sheet name="Routing" sheetId="2" r:id="rId2"/>
+    <sheet name="Routing(데이터)" sheetId="2" r:id="rId2"/>
+    <sheet name="Routing(머신러닝)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="237">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라우팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>server.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weather.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,6 +745,234 @@
   </si>
   <si>
     <t>cctv.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅(데이터분석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅(머신러닝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/MaLe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class, /upcls, /regre, /clust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class/cancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancer_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upcls/mnist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnist_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, dict, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/regre/iris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index, feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, pred, index, feature, X, ft_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clust/clust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file, n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clust.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, mtime, n_cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clust_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp7_classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clsft.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp8_upperclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upcls.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp9_regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regre.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clust.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp10_clustering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancer_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clustering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clust_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clust.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crawl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnist_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaLe.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>covid_util.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crawling.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gov_data_api.key.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1262,664 +1483,1458 @@
     <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="179.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="G26" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="12" t="s">
+      <c r="J33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>223</v>
+      </c>
+      <c r="O35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="N37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="12"/>
+      <c r="N41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="O45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>226</v>
+      </c>
+      <c r="O47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>235</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>236</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="4" t="s">
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J56" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>104</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="M57" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C58" s="12"/>
+      <c r="J58" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C59" s="12"/>
+      <c r="J59" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J60" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J61" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J62" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M62" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="12" t="s">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="12" t="s">
+    <row r="67" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J70" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1932,9 +2947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26243E4C-FCA4-491A-A6C1-9F097DC64FEA}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1951,7 +2966,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1959,78 +2974,78 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -2041,23 +3056,23 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2065,27 +3080,27 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2093,38 +3108,38 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2132,7 +3147,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
@@ -2144,7 +3159,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
@@ -2156,7 +3171,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
@@ -2167,42 +3182,42 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2210,13 +3225,13 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="4"/>
       <c r="F17" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2224,7 +3239,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2236,7 +3251,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2248,7 +3263,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2260,7 +3275,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2272,7 +3287,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2284,7 +3299,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2296,7 +3311,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2308,7 +3323,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2319,19 +3334,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -2339,23 +3354,23 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2363,42 +3378,42 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2407,36 +3422,36 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2445,36 +3460,36 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2483,21 +3498,21 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -2505,23 +3520,23 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2529,28 +3544,28 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="D38" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2558,7 +3573,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2569,21 +3584,21 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -2591,57 +3606,57 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2649,26 +3664,26 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H45" s="1"/>
     </row>
@@ -2676,37 +3691,283 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E658FCF9-E2C9-4602-86F6-B517C4425410}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python-flask/지우연.xlsx
+++ b/Python-flask/지우연.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D57B67-E859-44BC-B802-0C90E87D7801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0E43C-29AA-447F-9B13-47EA5F98FB12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
+    <workbookView xWindow="1065" yWindow="1560" windowWidth="23055" windowHeight="11385" activeTab="3" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
   <sheets>
-    <sheet name="파일 구조" sheetId="1" r:id="rId1"/>
-    <sheet name="Routing(데이터)" sheetId="2" r:id="rId2"/>
-    <sheet name="Routing(머신러닝)" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="파일 구조" sheetId="1" r:id="rId2"/>
+    <sheet name="Routing(데이터)" sheetId="2" r:id="rId3"/>
+    <sheet name="Routing(머신러닝)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="271">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,10 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu, weather result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/upcls/mnist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -973,6 +970,146 @@
   </si>
   <si>
     <t>gov_data_api.key.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class/pima</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pima.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pima_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class/titanic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class/wine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class/iris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wine.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wine_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titanic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titanic_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upcls/20news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upcls/IMDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select, review, index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imdb.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imdb_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, p_c, p_t, review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/regre/diabetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/regre/boston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diabetes.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diabetes_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boston.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boston_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, pred, index, feature, list, label, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crawl.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual_res.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,6 +1305,809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="481434144"/>
+        <c:axId val="481430536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="481434144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481430536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481430536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481434144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D7760CCD-B18C-4915-83C4-6733F2D60B0F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302750" cy="6080125"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE42027-3EAB-4E7F-AA4A-C2A3897EA0C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1467,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1514,7 +2454,7 @@
         <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>0</v>
@@ -1591,16 +2531,24 @@
       <c r="C6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>268</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1674,13 +2622,13 @@
         <v>2</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>79</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1701,13 +2649,13 @@
         <v>2</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>79</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1726,13 +2674,13 @@
         <v>2</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>79</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1751,13 +2699,13 @@
         <v>2</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>79</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1865,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1946,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1973,7 +2921,7 @@
         <v>86</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -2062,13 +3010,13 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>91</v>
@@ -2106,10 +3054,13 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
+        <v>214</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>215</v>
-      </c>
-      <c r="O26" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -2132,8 +3083,11 @@
       <c r="L27" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="N27" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="O27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2153,14 +3107,14 @@
       <c r="J28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" t="s">
-        <v>218</v>
+      <c r="L28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -2183,8 +3137,11 @@
       <c r="L29" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="N29" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="O29" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2204,17 +3161,14 @@
       <c r="J30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" t="s">
-        <v>168</v>
+      <c r="L30" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -2241,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2267,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
@@ -2289,11 +3243,11 @@
       <c r="L33" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="12" t="s">
-        <v>86</v>
+      <c r="N33" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
@@ -2315,17 +3269,14 @@
       <c r="J34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" t="s">
-        <v>221</v>
+      <c r="L34" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
@@ -2345,14 +3296,14 @@
       <c r="J35" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" t="s">
-        <v>223</v>
+      <c r="L35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="O35" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
@@ -2374,11 +3325,17 @@
       <c r="J36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="12" t="s">
-        <v>91</v>
+      <c r="L36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>217</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
@@ -2397,17 +3354,14 @@
       <c r="J37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>179</v>
+      <c r="L37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O37" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
@@ -2426,15 +3380,17 @@
       <c r="J38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>168</v>
+      </c>
       <c r="N38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
@@ -2453,12 +3409,11 @@
       <c r="L39" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="12" t="s">
-        <v>63</v>
+      <c r="O39" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
@@ -2477,12 +3432,11 @@
       <c r="L40" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M40" s="12"/>
       <c r="N40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
@@ -2495,12 +3449,11 @@
       <c r="L41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="12"/>
       <c r="N41" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
@@ -2514,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>91</v>
@@ -2522,12 +3475,11 @@
       <c r="L42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="4" t="s">
-        <v>2</v>
+      <c r="N42" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="O42" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
@@ -2538,19 +3490,22 @@
         <v>2</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="12" t="s">
-        <v>91</v>
+      <c r="L43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>220</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="O43" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
@@ -2566,14 +3521,17 @@
       <c r="J44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>86</v>
+      <c r="L44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>222</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
@@ -2589,17 +3547,14 @@
       <c r="J45" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>98</v>
+      <c r="L45" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
@@ -2618,12 +3573,11 @@
       <c r="L46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="12" t="s">
-        <v>86</v>
+      <c r="N46" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
@@ -2639,14 +3593,14 @@
       <c r="J47" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M47" t="s">
-        <v>226</v>
+      <c r="L47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
@@ -2654,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>91</v>
@@ -2662,8 +3616,11 @@
       <c r="L48" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="N48" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="O48" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
@@ -2671,22 +3628,19 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M49" t="s">
-        <v>123</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>0</v>
+      <c r="L49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="O49" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
@@ -2699,14 +3653,17 @@
       <c r="J50" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L50" s="12" t="s">
-        <v>91</v>
+      <c r="L50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O50" t="s">
-        <v>125</v>
+        <v>0</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
@@ -2722,11 +3679,12 @@
       <c r="L51" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O51" t="s">
-        <v>126</v>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
@@ -2739,11 +3697,15 @@
       <c r="J52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" t="s">
-        <v>229</v>
+      <c r="L52" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
@@ -2756,11 +3718,15 @@
       <c r="J53" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" t="s">
-        <v>230</v>
+      <c r="L53" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M53" s="12"/>
+      <c r="N53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
@@ -2773,11 +3739,15 @@
       <c r="J54" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M54" t="s">
-        <v>231</v>
+      <c r="L54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" s="12"/>
+      <c r="N54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
@@ -2791,29 +3761,42 @@
         <v>91</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M55" t="s">
-        <v>232</v>
+        <v>91</v>
+      </c>
+      <c r="M55" s="12"/>
+      <c r="N55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J56" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="L56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K57" t="s">
-        <v>104</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>233</v>
+      <c r="J57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O57" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
@@ -2825,7 +3808,13 @@
         <v>2</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>234</v>
+        <v>98</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
@@ -2833,11 +3822,15 @@
       <c r="J59" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>105</v>
+      <c r="L59" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
@@ -2847,93 +3840,276 @@
       <c r="L60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M60" s="12" t="s">
-        <v>106</v>
+      <c r="M60" t="s">
+        <v>225</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J61" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M61" s="12" t="s">
-        <v>78</v>
+      <c r="L61" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J62" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L62" s="12" t="s">
+      <c r="N62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J63" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="M62" s="12" t="s">
+      <c r="O63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J64" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>123</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J65" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J66" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J67" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J68" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J69" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J70" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J71" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72" t="s">
+        <v>104</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J73" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J74" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J75" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J76" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J77" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K63" t="s">
+    <row r="78" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K78" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K79" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K65" s="12" t="s">
+    <row r="80" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J66" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K66" s="12" t="s">
+    <row r="81" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K67" s="12" t="s">
+    <row r="82" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K82" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="12" t="s">
+    <row r="83" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K69" s="12" t="s">
+    <row r="84" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J70" s="12" t="s">
+    <row r="85" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J85" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K70" s="12" t="s">
+      <c r="K85" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3731,11 +4907,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E658FCF9-E2C9-4602-86F6-B517C4425410}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3744,9 +4920,9 @@
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3850,104 +5026,104 @@
         <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>236</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>191</v>
+      <c r="E8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+      <c r="C10" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>251</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="8"/>
+      <c r="A12" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -3958,16 +5134,308 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python-flask/지우연.xlsx
+++ b/Python-flask/지우연.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Python-Web\Python-flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0E43C-29AA-447F-9B13-47EA5F98FB12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9796FC-A098-45F9-81AD-48748C23673A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1560" windowWidth="23055" windowHeight="11385" activeTab="3" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6DE05146-1DFF-4B58-B975-B6E7DDFA2354}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="319">
   <si>
     <t>┬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1110,6 +1110,191 @@
   </si>
   <si>
     <t>visual_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20news_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lang/translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text, lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lang/tts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tts_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text, speaker, speed, pitch, emotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu, weather, info, mtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lang/trn_cls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trncls.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trncls_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text, trans_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lang/detect_lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result = {'text': text, 'trans': kakao_res_text, 'pred_org': org_predict, 'pred_trn': trn_predict}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result = {'text': text, 'trans': translated_text, 'pred_org': org_predict, 'pred_trn': trn_predict}</t>
+  </si>
+  <si>
+    <t>info = {'text': text, 'speaker': speaker, 'speed': speed, 'pitch': pitch, 'emotion': emotion}</t>
+  </si>
+  <si>
+    <t>result = {'text': text, 'lang': lang, 'naver': naver_res_text, 'kakao': kakao_res_text}</t>
+  </si>
+  <si>
+    <t>dict = {'index': index, 'label': label, 'feature': fts, 'pred': pred}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upcls/NaverMovie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select, review, index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver_res.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result = {'review': review, 'p_cl': p_cl, 'p_cn': p_cn, 'p_tl': p_tl, 'p_tn': p_tn}</t>
+  </si>
+  <si>
+    <t>result = {'index': index, 'label': label, 'pred_cl': pred_cl, 'pred_tl': pred_tl, 'pred_ts': pred_ts, 'article': X}</t>
+  </si>
+  <si>
+    <t>dict = {'index': img_index, 'label': label, 'pred_lr': pred_lr, 'pred_sv': pred_sv, 'pred_rf': pred_rf}</t>
+  </si>
+  <si>
+    <t>dict = {'label': label, 'index': index, 'pred_dt': pred_dt[0], 'pred_rf': pred_rf[0], 'pred_kn': pred_kn[0]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict = {'label': label, 'index': index, 'pred_lr': pred_lr[0], 'pred_sv': pred_sv[0], 'pred_dt': pred_dt[0], 'pred_rf': pred_rf[0]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result = {'label': label, 'index': index, 'pred_lr': pred_lr[0], 'pred_dt': pred_dt[0], 'pred_sv': pred_sv[0]}</t>
+  </si>
+  <si>
+    <t>bp11_language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>covid_1.db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_init.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_module.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1479,28 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2110,6 +2316,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2407,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344E3673-980A-4145-AF5A-EA048B6CC700}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2425,9 +2635,9 @@
     <col min="8" max="8" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2610,13 +2820,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>2</v>
@@ -2633,17 +2843,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
+      <c r="B10" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>2</v>
@@ -2663,12 +2870,11 @@
       <c r="B11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
+      <c r="D11" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>87</v>
+        <v>315</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>2</v>
@@ -2685,15 +2891,17 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>2</v>
@@ -2710,27 +2918,29 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>89</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2743,19 +2953,19 @@
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>85</v>
+      <c r="M14" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2763,42 +2973,42 @@
       <c r="B15" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>87</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="M16" s="12" t="s">
-        <v>88</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2806,45 +3016,48 @@
       <c r="B17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>91</v>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>92</v>
+      <c r="B18" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>89</v>
+      <c r="M18" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2853,13 +3066,10 @@
         <v>91</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>91</v>
@@ -2869,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2877,15 +3087,6 @@
       <c r="B20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
       <c r="J20" s="12" t="s">
         <v>91</v>
       </c>
@@ -2894,34 +3095,37 @@
         <v>2</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="12" t="s">
-        <v>91</v>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>149</v>
+      <c r="G21" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>86</v>
+      <c r="L21" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -2936,10 +3140,17 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>91</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -2950,29 +3161,21 @@
       <c r="D23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>2</v>
+      <c r="F23" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2980,72 +3183,64 @@
       <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>86</v>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24" t="s">
-        <v>110</v>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>220</v>
+      <c r="D25" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" t="s">
-        <v>111</v>
+      <c r="L25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>93</v>
+      <c r="D26" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>179</v>
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>91</v>
@@ -3053,14 +3248,8 @@
       <c r="L26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M26" t="s">
-        <v>214</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>215</v>
+      <c r="M26" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3070,78 +3259,75 @@
       <c r="D27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>175</v>
+      <c r="F27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>91</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" t="s">
-        <v>216</v>
+        <v>86</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>220</v>
+      </c>
       <c r="F28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>221</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="12"/>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>91</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" t="s">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3151,12 +3337,12 @@
       <c r="D30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
-        <v>94</v>
+      <c r="G30" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>91</v>
@@ -3168,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3178,12 +3364,12 @@
       <c r="D31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
-        <v>95</v>
+      <c r="G31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>91</v>
@@ -3191,11 +3377,11 @@
       <c r="L31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N31" s="4" t="s">
-        <v>2</v>
+      <c r="N31" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="O31" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3205,23 +3391,27 @@
       <c r="D32" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>91</v>
+      <c r="L32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>214</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
@@ -3231,11 +3421,12 @@
       <c r="D33" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>86</v>
+      <c r="E33" s="12"/>
+      <c r="F33" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>91</v>
@@ -3247,24 +3438,22 @@
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="D34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>91</v>
@@ -3276,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
@@ -3286,12 +3475,11 @@
       <c r="D35" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="12" t="s">
-        <v>86</v>
+      <c r="F35" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>91</v>
@@ -3299,57 +3487,54 @@
       <c r="L35" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N35" s="12" t="s">
-        <v>86</v>
+      <c r="N35" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>0</v>
+      <c r="D36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" t="s">
-        <v>217</v>
+      <c r="L36" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>91</v>
+      <c r="D37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>91</v>
@@ -3357,11 +3542,11 @@
       <c r="L37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N37" s="12" t="s">
-        <v>86</v>
+      <c r="N37" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
@@ -3371,26 +3556,24 @@
       <c r="D38" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="12" t="s">
         <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" t="s">
-        <v>168</v>
+      <c r="L38" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
@@ -3400,8 +3583,14 @@
       <c r="D39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>101</v>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>124</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>91</v>
@@ -3413,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
@@ -3421,10 +3610,13 @@
         <v>91</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>91</v>
@@ -3436,88 +3628,88 @@
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="D41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>126</v>
+      </c>
       <c r="J41" s="12" t="s">
         <v>91</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="4" t="s">
-        <v>2</v>
+      <c r="N41" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="O41" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
+      <c r="B42" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>217</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="O42" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>233</v>
+      <c r="D43" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M43" t="s">
-        <v>220</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>79</v>
+      <c r="L43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="J44" s="12" t="s">
         <v>91</v>
       </c>
@@ -3525,24 +3717,27 @@
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="12" t="s">
-        <v>91</v>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>91</v>
@@ -3554,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
@@ -3565,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>91</v>
@@ -3577,101 +3772,110 @@
         <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="O48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>220</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>234</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O48" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>235</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="J50" s="12" t="s">
         <v>91</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>179</v>
+      <c r="M50" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>74</v>
+      <c r="C51" t="s">
+        <v>234</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>91</v>
@@ -3679,20 +3883,16 @@
       <c r="L51" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>175</v>
+      <c r="O51" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>77</v>
+      <c r="C52" t="s">
+        <v>235</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>91</v>
@@ -3700,12 +3900,8 @@
       <c r="L52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O52" s="12" t="s">
-        <v>63</v>
+      <c r="O52" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
@@ -3713,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>91</v>
@@ -3721,12 +3917,8 @@
       <c r="L53" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M53" s="12"/>
-      <c r="N53" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="O53" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
@@ -3734,87 +3926,90 @@
         <v>2</v>
       </c>
       <c r="C54" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M54" s="12"/>
-      <c r="N54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="12" t="s">
+      <c r="J57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O57" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M55" s="12"/>
-      <c r="N55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J56" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J57" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N57" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C58" s="12"/>
       <c r="J58" s="12" t="s">
         <v>91</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M58" s="12" t="s">
-        <v>98</v>
+      <c r="M58" t="s">
+        <v>222</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
@@ -3825,29 +4020,25 @@
       <c r="L59" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="12" t="s">
-        <v>86</v>
+      <c r="N59" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J60" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M60" t="s">
-        <v>225</v>
+      <c r="L60" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
@@ -3861,29 +4052,35 @@
         <v>2</v>
       </c>
       <c r="O61" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J62" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="L62" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="N62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J63" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="L63" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="N63" s="12" t="s">
         <v>86</v>
       </c>
       <c r="O63" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
@@ -3893,14 +4090,14 @@
       <c r="L64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M64" t="s">
-        <v>123</v>
+      <c r="M64" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O64" t="s">
-        <v>124</v>
+      <c r="O64" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="10:15" x14ac:dyDescent="0.3">
@@ -3910,11 +4107,12 @@
       <c r="L65" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O65" t="s">
-        <v>125</v>
+      <c r="O65" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="10:15" x14ac:dyDescent="0.3">
@@ -3924,44 +4122,57 @@
       <c r="L66" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O66" t="s">
-        <v>126</v>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J67" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M67" t="s">
-        <v>228</v>
+      <c r="L67" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M67" s="12"/>
+      <c r="N67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J68" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M68" t="s">
-        <v>229</v>
+      <c r="L68" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M68" s="12"/>
+      <c r="N68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J69" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M69" t="s">
-        <v>230</v>
+      <c r="L69" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M69" s="12"/>
+      <c r="N69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="10:15" x14ac:dyDescent="0.3">
@@ -3969,40 +4180,59 @@
         <v>91</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M70" t="s">
-        <v>231</v>
+        <v>91</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J71" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="L71" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O71" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="72" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J72" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K72" t="s">
-        <v>104</v>
+      <c r="J72" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="L72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M72" s="12" t="s">
-        <v>232</v>
+      <c r="O72" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J73" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>233</v>
+      <c r="L73" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O73" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="10:15" x14ac:dyDescent="0.3">
@@ -4012,30 +4242,42 @@
       <c r="L74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M74" s="12" t="s">
-        <v>105</v>
+      <c r="M74" t="s">
+        <v>225</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J75" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>106</v>
+      <c r="L75" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J76" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>78</v>
+      <c r="L76" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="10:15" x14ac:dyDescent="0.3">
@@ -4043,78 +4285,306 @@
         <v>91</v>
       </c>
       <c r="L77" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J78" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J79" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J80" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J81" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N81" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="M77" s="12" t="s">
+      <c r="O81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J82" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M82" t="s">
+        <v>123</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J83" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J85" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J86" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J87" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J88" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J89" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K90" t="s">
+        <v>104</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J91" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J92" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J93" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J94" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J95" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M95" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K78" t="s">
+    <row r="96" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K96" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J79" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K79" t="s">
+    <row r="97" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K97" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K80" s="12" t="s">
+    <row r="98" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K98" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K81" s="12" t="s">
+    <row r="99" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J82" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K82" s="12" t="s">
+    <row r="100" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K100" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J83" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K83" s="12" t="s">
+    <row r="101" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K101" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K84" s="12" t="s">
+    <row r="102" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K102" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J85" s="12" t="s">
+    <row r="103" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J103" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K85" s="12" t="s">
+      <c r="K103" s="12" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="L69:L70">
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76:L77">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4907,22 +5377,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E658FCF9-E2C9-4602-86F6-B517C4425410}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -5029,7 +5500,9 @@
         <v>240</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -5067,7 +5540,9 @@
         <v>244</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -5105,7 +5580,9 @@
         <v>244</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -5143,7 +5620,9 @@
         <v>244</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -5181,7 +5660,9 @@
         <v>244</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
@@ -5219,7 +5700,9 @@
         <v>191</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -5230,9 +5713,15 @@
         <v>11</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -5241,11 +5730,19 @@
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -5287,135 +5784,135 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>300</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>195</v>
+      <c r="E22" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
+      <c r="C23" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>196</v>
+        <v>301</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>265</v>
+      <c r="E24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>266</v>
+      <c r="E25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="1" t="s">
-        <v>237</v>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="8"/>
+      <c r="A28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
+      <c r="E28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -5426,16 +5923,216 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
